--- a/biology/Zoologie/Heliconius_eleuchia/Heliconius_eleuchia.xlsx
+++ b/biology/Zoologie/Heliconius_eleuchia/Heliconius_eleuchia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius eleuchia est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,15 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius eleuchia a été décrit par William Chapman Hewitson en 1854[1].
-Sous-espèces
-Heliconius eleuchia eleuchia; présent au Costa Rica et en Colombie.
-Heliconius eleuchia eleusinus Staudinger, 1885; présent  en Équateur.
-Heliconius eleuchia primularis Butler, 1869; présent  en Colombie et en Équateur[1].
-Nom vernaculaire
-Heliconius eleuchia se nomme White-edged Longwing en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius eleuchia a été décrit par William Chapman Hewitson en 1854.
 </t>
         </is>
       </c>
@@ -545,10 +553,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius eleuchia eleuchia; présent au Costa Rica et en Colombie.
+Heliconius eleuchia eleusinus Staudinger, 1885; présent  en Équateur.
+Heliconius eleuchia primularis Butler, 1869; présent  en Colombie et en Équateur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius eleuchia se nomme White-edged Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius eleuchia est un grand papillon au corps fin et aux longues ailes antérieures allongées et au bord interne légèrement concave.
 Le dessus est de couleur bleu marine ou noire ou marron à ornementation blanche, deux bandes à bords irréguliers aux ailes antérieure, du bord costal à l'angle interne et séparant l'apex du reste de l'aile, une large bande couvrant l'aire submarginale aux ailes postérieures.
@@ -557,98 +642,142 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_eleuchia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_eleuchia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae, des Passiflora (Astrophea et Passiflora macrophyllum)[3].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae, des Passiflora (Astrophea et Passiflora macrophyllum).
 Sur les autres projets Wikimedia :
 Heliconius eleuchia, sur Wikimedia CommonsHeliconius eleuchia, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_eleuchia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_eleuchia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius eleuchia est présent  au Costa Rica, en Colombie et en Équateur[1].
-Biotope
-Heliconius eleuchia réside jusqu'à une altitude de 2 000 m dans la forêt[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius eleuchia est présent  au Costa Rica, en Colombie et en Équateur.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Heliconius_eleuchia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_eleuchia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius eleuchia réside jusqu'à une altitude de 2 000 m dans la forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_eleuchia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
